--- a/data/cor_final.xlsx
+++ b/data/cor_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4C847-F660-3341-A172-A85827FEEAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676D15B-C01B-1C4B-ABD8-EFCD5280171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="27920" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="30080" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="212">
   <si>
     <t>x1</t>
   </si>
@@ -659,14 +659,28 @@
   </si>
   <si>
     <t>ireland</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>approx demo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -694,8 +708,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -992,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1018,7 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1064,11 @@
       <c r="O1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1445,7 +1463,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1486,7 +1504,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1527,7 +1545,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2908,7 +2926,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -2937,7 +2955,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -3060,7 +3078,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -3142,7 +3160,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -3177,7 +3195,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3237,14 +3255,27 @@
       <c r="H57">
         <v>189</v>
       </c>
+      <c r="I57">
+        <v>13.06</v>
+      </c>
+      <c r="J57">
+        <v>0.9</v>
+      </c>
+      <c r="K57">
+        <v>0.45</v>
+      </c>
       <c r="L57" t="s">
         <v>187</v>
       </c>
       <c r="M57" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="1"/>
+      <c r="P57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -3282,7 +3313,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3320,7 +3351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3361,7 +3392,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -3402,7 +3433,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3443,7 +3474,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -3468,6 +3499,12 @@
       <c r="H63">
         <v>474</v>
       </c>
+      <c r="I63">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="J63">
+        <v>1.39</v>
+      </c>
       <c r="K63">
         <v>0.7</v>
       </c>
@@ -3477,8 +3514,11 @@
       <c r="M63" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -3519,7 +3559,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -3554,7 +3594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -3595,7 +3635,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -3627,7 +3667,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3668,7 +3708,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3706,7 +3746,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3741,7 +3781,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3782,7 +3822,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -3817,7 +3857,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -3842,14 +3882,26 @@
       <c r="H73">
         <v>157</v>
       </c>
+      <c r="I73">
+        <v>13.06</v>
+      </c>
+      <c r="J73">
+        <v>0.9</v>
+      </c>
+      <c r="K73">
+        <v>0.45</v>
+      </c>
       <c r="L73" t="s">
         <v>187</v>
       </c>
       <c r="M73" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3874,6 +3926,12 @@
       <c r="H74">
         <v>474</v>
       </c>
+      <c r="I74">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="J74">
+        <v>1.39</v>
+      </c>
       <c r="K74">
         <v>0.7</v>
       </c>
@@ -3883,8 +3941,11 @@
       <c r="M74" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3925,7 +3986,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -3966,7 +4027,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>210</v>
+      </c>
       <c r="B77" t="s">
         <v>92</v>
       </c>
@@ -3985,14 +4049,29 @@
       <c r="G77">
         <v>330</v>
       </c>
+      <c r="H77">
+        <v>474</v>
+      </c>
+      <c r="I77">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="J77">
+        <v>1.39</v>
+      </c>
+      <c r="K77">
+        <v>0.7</v>
+      </c>
       <c r="L77" t="s">
         <v>189</v>
       </c>
       <c r="M77" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4017,14 +4096,26 @@
       <c r="H78">
         <v>189</v>
       </c>
+      <c r="I78">
+        <v>13.06</v>
+      </c>
+      <c r="J78">
+        <v>0.9</v>
+      </c>
+      <c r="K78">
+        <v>0.45</v>
+      </c>
       <c r="L78" t="s">
         <v>187</v>
       </c>
       <c r="M78" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -4065,7 +4156,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>210</v>
+      </c>
       <c r="B80" t="s">
         <v>92</v>
       </c>
@@ -4084,14 +4178,29 @@
       <c r="G80">
         <v>323</v>
       </c>
+      <c r="H80">
+        <v>474</v>
+      </c>
+      <c r="I80">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="J80">
+        <v>1.39</v>
+      </c>
+      <c r="K80">
+        <v>0.7</v>
+      </c>
       <c r="L80" t="s">
         <v>189</v>
       </c>
       <c r="M80" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -4116,14 +4225,29 @@
       <c r="H81">
         <v>157</v>
       </c>
+      <c r="I81">
+        <v>13.06</v>
+      </c>
+      <c r="J81">
+        <v>0.9</v>
+      </c>
+      <c r="K81">
+        <v>0.45</v>
+      </c>
       <c r="L81" t="s">
         <v>187</v>
       </c>
       <c r="M81" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>210</v>
+      </c>
       <c r="B82" t="s">
         <v>92</v>
       </c>
@@ -4142,14 +4266,29 @@
       <c r="G82">
         <v>90</v>
       </c>
+      <c r="H82">
+        <v>474</v>
+      </c>
+      <c r="I82">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="J82">
+        <v>1.39</v>
+      </c>
+      <c r="K82">
+        <v>0.7</v>
+      </c>
       <c r="L82" t="s">
         <v>189</v>
       </c>
       <c r="M82" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -4174,14 +4313,26 @@
       <c r="H83">
         <v>135</v>
       </c>
+      <c r="I83">
+        <v>13.06</v>
+      </c>
+      <c r="J83">
+        <v>0.9</v>
+      </c>
+      <c r="K83">
+        <v>0.45</v>
+      </c>
       <c r="L83" t="s">
         <v>187</v>
       </c>
       <c r="M83" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -4206,14 +4357,26 @@
       <c r="H84">
         <v>157</v>
       </c>
+      <c r="I84">
+        <v>13.06</v>
+      </c>
+      <c r="J84">
+        <v>0.9</v>
+      </c>
+      <c r="K84">
+        <v>0.45</v>
+      </c>
       <c r="L84" t="s">
         <v>187</v>
       </c>
       <c r="M84" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -4238,14 +4401,26 @@
       <c r="H85">
         <v>135</v>
       </c>
+      <c r="I85">
+        <v>13.06</v>
+      </c>
+      <c r="J85">
+        <v>0.9</v>
+      </c>
+      <c r="K85">
+        <v>0.45</v>
+      </c>
       <c r="L85" t="s">
         <v>187</v>
       </c>
       <c r="M85" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -4270,14 +4445,26 @@
       <c r="H86">
         <v>135</v>
       </c>
+      <c r="I86">
+        <v>13.06</v>
+      </c>
+      <c r="J86">
+        <v>0.9</v>
+      </c>
+      <c r="K86">
+        <v>0.45</v>
+      </c>
       <c r="L86" t="s">
         <v>187</v>
       </c>
       <c r="M86" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -4318,7 +4505,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4356,7 +4543,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -4397,7 +4584,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -4438,7 +4625,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -4479,7 +4666,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -4520,7 +4707,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4555,7 +4742,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4596,7 +4783,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -4637,7 +4824,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>

--- a/data/cor_final.xlsx
+++ b/data/cor_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676D15B-C01B-1C4B-ABD8-EFCD5280171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C2A3E-B3A5-6746-9A11-2E7D1CAEDBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="30080" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="220">
   <si>
     <t>x1</t>
   </si>
@@ -640,12 +640,6 @@
     <t>australia</t>
   </si>
   <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>domain3</t>
-  </si>
-  <si>
     <t>Examining "untact" tourism behaviour in South Korea during the COVID-19 pandemic: a two-wave longitudinal study (March and September 2020)</t>
   </si>
   <si>
@@ -664,23 +658,45 @@
     <t>flag</t>
   </si>
   <si>
-    <t>approx demo</t>
+    <t>health_subdomain</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>questionnaire validation</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>food safety</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
+    <t>mental health</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -708,9 +724,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1010,12 +1025,14 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1062,10 +1079,10 @@
         <v>180</v>
       </c>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1108,6 +1125,9 @@
       <c r="M2" t="s">
         <v>182</v>
       </c>
+      <c r="O2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1149,6 +1169,9 @@
       <c r="M3" t="s">
         <v>182</v>
       </c>
+      <c r="O3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1228,6 +1251,9 @@
       <c r="M5" t="s">
         <v>182</v>
       </c>
+      <c r="O5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1269,6 +1295,9 @@
       <c r="M6" t="s">
         <v>182</v>
       </c>
+      <c r="O6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1339,6 +1368,9 @@
       <c r="M8" t="s">
         <v>182</v>
       </c>
+      <c r="O8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1380,6 +1412,9 @@
       <c r="M9" t="s">
         <v>182</v>
       </c>
+      <c r="O9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1421,6 +1456,9 @@
       <c r="M10" t="s">
         <v>182</v>
       </c>
+      <c r="O10" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1462,6 +1500,9 @@
       <c r="M11" t="s">
         <v>182</v>
       </c>
+      <c r="O11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1503,6 +1544,9 @@
       <c r="M12" t="s">
         <v>182</v>
       </c>
+      <c r="O12" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1544,6 +1588,9 @@
       <c r="M13" t="s">
         <v>182</v>
       </c>
+      <c r="O13" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1582,6 +1629,9 @@
       <c r="M14" t="s">
         <v>182</v>
       </c>
+      <c r="O14" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1623,6 +1673,9 @@
       <c r="M15" t="s">
         <v>182</v>
       </c>
+      <c r="O15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1664,6 +1717,9 @@
       <c r="M16" t="s">
         <v>182</v>
       </c>
+      <c r="O16" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1705,6 +1761,9 @@
       <c r="M17" t="s">
         <v>182</v>
       </c>
+      <c r="O17" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1750,7 +1809,7 @@
         <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1790,6 +1849,9 @@
       <c r="N19" t="s">
         <v>195</v>
       </c>
+      <c r="O19" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1831,6 +1893,9 @@
       <c r="M20" t="s">
         <v>182</v>
       </c>
+      <c r="O20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1872,6 +1937,9 @@
       <c r="M21" t="s">
         <v>182</v>
       </c>
+      <c r="O21" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1913,6 +1981,9 @@
       <c r="M22" t="s">
         <v>182</v>
       </c>
+      <c r="O22" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1954,6 +2025,9 @@
       <c r="M23" t="s">
         <v>182</v>
       </c>
+      <c r="O23" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1995,6 +2069,9 @@
       <c r="M24" t="s">
         <v>182</v>
       </c>
+      <c r="O24" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2036,6 +2113,9 @@
       <c r="M25" t="s">
         <v>182</v>
       </c>
+      <c r="O25" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2071,6 +2151,9 @@
       <c r="M26" t="s">
         <v>182</v>
       </c>
+      <c r="O26" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2112,6 +2195,9 @@
       <c r="M27" t="s">
         <v>182</v>
       </c>
+      <c r="O27" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2194,6 +2280,9 @@
       <c r="M29" t="s">
         <v>182</v>
       </c>
+      <c r="O29" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2235,6 +2324,9 @@
       <c r="M30" t="s">
         <v>182</v>
       </c>
+      <c r="O30" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2312,7 +2404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -2346,8 +2438,11 @@
       <c r="M33" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -2390,8 +2485,11 @@
       <c r="N34" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2431,8 +2529,11 @@
       <c r="M35" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -2472,8 +2573,11 @@
       <c r="M36" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2513,8 +2617,11 @@
       <c r="M37" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -2551,8 +2658,11 @@
       <c r="M38" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -2586,8 +2696,11 @@
       <c r="M39" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -2631,7 +2744,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2668,8 +2781,11 @@
       <c r="M41" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -2704,13 +2820,16 @@
         <v>0.33</v>
       </c>
       <c r="L42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M42" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="M43" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -2773,8 +2895,11 @@
       <c r="M44" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2812,10 +2937,10 @@
         <v>199</v>
       </c>
       <c r="M45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2852,8 +2977,11 @@
       <c r="M46" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -2890,8 +3018,11 @@
       <c r="M47" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -2920,13 +3051,16 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M48" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -2954,8 +3088,11 @@
       <c r="M49" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -2995,8 +3132,11 @@
       <c r="M50" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -3031,13 +3171,16 @@
         <v>0.64</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M51" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -3077,8 +3220,11 @@
       <c r="M52" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3118,8 +3264,11 @@
       <c r="M53" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -3159,8 +3308,11 @@
       <c r="M54" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -3195,7 +3347,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3229,8 +3381,11 @@
       <c r="M56" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3270,12 +3425,11 @@
       <c r="M57" t="s">
         <v>182</v>
       </c>
-      <c r="O57" s="1"/>
-      <c r="P57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -3312,8 +3466,11 @@
       <c r="M58" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3350,8 +3507,11 @@
       <c r="N59" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3391,8 +3551,11 @@
       <c r="M60" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -3432,8 +3595,11 @@
       <c r="M61" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3473,8 +3639,11 @@
       <c r="M62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -3514,11 +3683,11 @@
       <c r="M63" t="s">
         <v>182</v>
       </c>
-      <c r="P63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -3558,8 +3727,11 @@
       <c r="M64" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -3593,8 +3765,11 @@
       <c r="M65" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -3629,13 +3804,16 @@
         <v>0.33</v>
       </c>
       <c r="L66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M66" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -3666,8 +3844,11 @@
       <c r="M67" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3705,10 +3886,10 @@
         <v>199</v>
       </c>
       <c r="M68" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3745,8 +3926,11 @@
       <c r="M69" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3775,13 +3959,16 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M70" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3821,8 +4008,11 @@
       <c r="M71" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -3856,8 +4046,11 @@
       <c r="M72" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -3897,11 +4090,11 @@
       <c r="M73" t="s">
         <v>182</v>
       </c>
-      <c r="P73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3941,11 +4134,11 @@
       <c r="M74" t="s">
         <v>182</v>
       </c>
-      <c r="P74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3985,8 +4178,11 @@
       <c r="M75" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -4024,10 +4220,10 @@
         <v>199</v>
       </c>
       <c r="M76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>210</v>
       </c>
@@ -4067,11 +4263,11 @@
       <c r="M77" t="s">
         <v>182</v>
       </c>
-      <c r="P77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4111,11 +4307,11 @@
       <c r="M78" t="s">
         <v>182</v>
       </c>
-      <c r="P78" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -4153,10 +4349,10 @@
         <v>199</v>
       </c>
       <c r="M79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>210</v>
       </c>
@@ -4196,11 +4392,11 @@
       <c r="M80" t="s">
         <v>182</v>
       </c>
-      <c r="P80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -4240,11 +4436,11 @@
       <c r="M81" t="s">
         <v>182</v>
       </c>
-      <c r="P81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>210</v>
       </c>
@@ -4284,11 +4480,11 @@
       <c r="M82" t="s">
         <v>182</v>
       </c>
-      <c r="P82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -4328,11 +4524,11 @@
       <c r="M83" t="s">
         <v>182</v>
       </c>
-      <c r="P83" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -4372,11 +4568,11 @@
       <c r="M84" t="s">
         <v>182</v>
       </c>
-      <c r="P84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -4416,11 +4612,11 @@
       <c r="M85" t="s">
         <v>182</v>
       </c>
-      <c r="P85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -4460,11 +4656,11 @@
       <c r="M86" t="s">
         <v>182</v>
       </c>
-      <c r="P86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -4504,8 +4700,11 @@
       <c r="M87" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4513,7 +4712,7 @@
         <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -4542,8 +4741,11 @@
       <c r="M88" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -4583,8 +4785,11 @@
       <c r="M89" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -4624,8 +4829,11 @@
       <c r="M90" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -4665,8 +4873,11 @@
       <c r="M91" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="M92" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4741,8 +4955,11 @@
       <c r="M93" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4782,8 +4999,11 @@
       <c r="M94" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -4823,8 +5043,11 @@
       <c r="M95" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -4864,8 +5087,11 @@
       <c r="M96" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4902,8 +5128,11 @@
       <c r="M97" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -4943,8 +5172,11 @@
       <c r="M98" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4984,8 +5216,11 @@
       <c r="M99" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -5022,8 +5257,11 @@
       <c r="M100" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -5060,8 +5298,11 @@
       <c r="M101" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -5097,6 +5338,9 @@
       </c>
       <c r="M102" t="s">
         <v>182</v>
+      </c>
+      <c r="O102" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/cor_final.xlsx
+++ b/data/cor_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C2A3E-B3A5-6746-9A11-2E7D1CAEDBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059CBEC8-E1D8-CE46-8068-DF92AB88975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31040" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="231">
   <si>
     <t>x1</t>
   </si>
@@ -568,21 +568,12 @@
     <t>south korea</t>
   </si>
   <si>
-    <t>domain1</t>
-  </si>
-  <si>
-    <t>domain2</t>
-  </si>
-  <si>
     <t>finance</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>age_sd</t>
-  </si>
-  <si>
     <t>turkey</t>
   </si>
   <si>
@@ -655,9 +646,6 @@
     <t>ireland</t>
   </si>
   <si>
-    <t>flag</t>
-  </si>
-  <si>
     <t>health_subdomain</t>
   </si>
   <si>
@@ -689,6 +677,51 @@
   </si>
   <si>
     <t>mental health</t>
+  </si>
+  <si>
+    <t>formulation</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item </t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but check </t>
   </si>
 </sst>
 </file>
@@ -1022,17 +1055,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1049,22 +1092,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>183</v>
       </c>
       <c r="K1" t="s">
         <v>176</v>
@@ -1073,16 +1116,16 @@
         <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="P1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1099,34 +1142,40 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.68</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>63</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>37.14</v>
-      </c>
-      <c r="J2">
-        <v>12.13</v>
       </c>
       <c r="K2">
         <v>0.43</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N2" t="s">
+        <v>206</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>223</v>
+      </c>
+      <c r="P2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1143,34 +1192,40 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.88</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>42</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>28.39</v>
-      </c>
-      <c r="J3">
-        <v>4.3</v>
       </c>
       <c r="K3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="P3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1187,28 +1242,37 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.42</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>365</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7042</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>49.36</v>
-      </c>
-      <c r="J4">
-        <v>16.98</v>
       </c>
       <c r="K4">
         <v>0.53</v>
       </c>
       <c r="M4" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="N4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1225,34 +1289,40 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.68</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>42.52</v>
-      </c>
-      <c r="J5">
-        <v>10.050000000000001</v>
       </c>
       <c r="K5">
         <v>0.05</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
       </c>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>223</v>
+      </c>
+      <c r="P5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1269,34 +1339,40 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.47</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>52</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>40</v>
-      </c>
-      <c r="J6">
-        <v>24</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>223</v>
+      </c>
+      <c r="P6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1313,15 +1389,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.85</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>690</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>253</v>
       </c>
       <c r="K7">
@@ -1331,7 +1410,16 @@
         <v>178</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="N7" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1348,28 +1436,37 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>304</v>
       </c>
       <c r="K8">
         <v>0.56999999999999995</v>
       </c>
       <c r="L8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M8" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N8" t="s">
+        <v>209</v>
       </c>
       <c r="O8" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="P8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1386,34 +1483,40 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.78</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>119</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>30.44</v>
-      </c>
-      <c r="J9">
-        <v>4.17</v>
       </c>
       <c r="K9">
         <v>0.08</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M9" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N9" t="s">
+        <v>207</v>
       </c>
       <c r="O9" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="P9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1430,34 +1533,40 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.62</v>
       </c>
-      <c r="G10">
-        <v>180</v>
-      </c>
       <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10">
         <v>741</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>45</v>
-      </c>
-      <c r="J10">
-        <v>8.6</v>
       </c>
       <c r="K10">
         <v>0.15</v>
       </c>
       <c r="L10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
       </c>
       <c r="O10" t="s">
-        <v>212</v>
+        <v>223</v>
+      </c>
+      <c r="P10" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1474,34 +1583,40 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>365</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>213</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>13.06</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
       </c>
       <c r="K11">
         <v>0.45</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M11" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N11" t="s">
+        <v>210</v>
       </c>
       <c r="O11" t="s">
-        <v>214</v>
+        <v>223</v>
+      </c>
+      <c r="P11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1518,34 +1633,40 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.64</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>120</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>147</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>31.16</v>
-      </c>
-      <c r="J12">
-        <v>9.77</v>
       </c>
       <c r="K12">
         <v>0.55000000000000004</v>
       </c>
       <c r="L12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N12" t="s">
+        <v>211</v>
       </c>
       <c r="O12" t="s">
-        <v>215</v>
+        <v>223</v>
+      </c>
+      <c r="P12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1562,34 +1683,40 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.75</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>30</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>170</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>39.700000000000003</v>
-      </c>
-      <c r="J13">
-        <v>12.3</v>
       </c>
       <c r="K13">
         <v>0.47</v>
       </c>
       <c r="L13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N13" t="s">
+        <v>209</v>
       </c>
       <c r="O13" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="P13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1606,18 +1733,21 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.29499999999999998</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>90</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>290</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>38.9</v>
       </c>
       <c r="K14">
@@ -1627,10 +1757,16 @@
         <v>178</v>
       </c>
       <c r="M14" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N14" t="s">
+        <v>209</v>
       </c>
       <c r="O14" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="P14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1647,34 +1783,40 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.97</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>40</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>31.2</v>
-      </c>
-      <c r="J15">
-        <v>4.8</v>
       </c>
       <c r="K15">
         <v>0.65</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N15" t="s">
+        <v>209</v>
       </c>
       <c r="O15" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="P15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1691,37 +1833,43 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1825</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>909</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>55.9</v>
-      </c>
-      <c r="J16">
-        <v>6.9</v>
       </c>
       <c r="K16">
         <v>0.57699999999999996</v>
       </c>
       <c r="L16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s">
+        <v>212</v>
       </c>
       <c r="O16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="P16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1735,37 +1883,43 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.71</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>90</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>49</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>36.799999999999997</v>
-      </c>
-      <c r="J17">
-        <v>7.3</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N17" t="s">
+        <v>213</v>
       </c>
       <c r="O17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1779,40 +1933,43 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.74</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>60</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>366</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>20.91</v>
-      </c>
-      <c r="J18">
-        <v>1.7</v>
       </c>
       <c r="K18">
         <v>0.64</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1826,34 +1983,40 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.49</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1266</v>
       </c>
       <c r="K19">
         <v>0.5</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1867,37 +2030,43 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.49</v>
       </c>
-      <c r="G20">
-        <v>180</v>
-      </c>
       <c r="H20">
+        <v>180</v>
+      </c>
+      <c r="I20">
         <v>652</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13.6</v>
-      </c>
-      <c r="J20">
-        <v>1.01</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N20" t="s">
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1911,37 +2080,43 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>717</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>129</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39</v>
-      </c>
-      <c r="J21">
-        <v>15.6</v>
       </c>
       <c r="K21">
         <v>0.79</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="P21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1955,37 +2130,43 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.52</v>
       </c>
-      <c r="G22">
-        <v>180</v>
-      </c>
       <c r="H22">
+        <v>180</v>
+      </c>
+      <c r="I22">
         <v>1445</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>14.5</v>
-      </c>
-      <c r="J22">
-        <v>1.68</v>
       </c>
       <c r="K22">
         <v>0.49</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1999,37 +2180,43 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.7</v>
       </c>
-      <c r="G23">
-        <v>180</v>
-      </c>
       <c r="H23">
+        <v>180</v>
+      </c>
+      <c r="I23">
         <v>431</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>47.96</v>
-      </c>
-      <c r="J23">
-        <v>13.57</v>
       </c>
       <c r="K23">
         <v>0.46600000000000003</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="P23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2043,37 +2230,43 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.49</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>120</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>422</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>41.99</v>
-      </c>
-      <c r="J24">
-        <v>15.08</v>
       </c>
       <c r="K24">
         <v>0.49</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2087,37 +2280,43 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.69</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>66.5</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1207</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>27.07</v>
-      </c>
-      <c r="J25">
-        <v>4.93</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -2131,31 +2330,40 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>365</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1720</v>
       </c>
       <c r="K26">
         <v>0.53</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
       </c>
       <c r="O26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -2169,37 +2377,43 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.64</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>90</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>422</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>41.99</v>
-      </c>
-      <c r="J27">
-        <v>15.08</v>
       </c>
       <c r="K27">
         <v>0.49</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2213,34 +2427,43 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.71</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>60</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>298</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>26</v>
-      </c>
-      <c r="J28">
-        <v>6.57</v>
       </c>
       <c r="K28">
         <v>0.76</v>
       </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -2254,37 +2477,43 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.54</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>7</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>557</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>20.420000000000002</v>
-      </c>
-      <c r="J29">
-        <v>1.39</v>
       </c>
       <c r="K29">
         <v>0.7</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M29" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
       </c>
       <c r="O29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2298,37 +2527,43 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.92</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>14</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>115</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>71.599999999999994</v>
-      </c>
-      <c r="J30">
-        <v>10.9</v>
       </c>
       <c r="K30">
         <v>0.73</v>
       </c>
       <c r="L30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
       </c>
       <c r="O30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -2342,28 +2577,40 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.44</v>
       </c>
-      <c r="G31">
-        <v>180</v>
-      </c>
       <c r="H31">
+        <v>180</v>
+      </c>
+      <c r="I31">
         <v>1052</v>
       </c>
       <c r="K31">
         <v>0.52</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="N31" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -2377,34 +2624,43 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.87</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>14</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>106</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6.25</v>
-      </c>
-      <c r="J32">
-        <v>1.29</v>
       </c>
       <c r="K32">
         <v>0.99099999999999999</v>
       </c>
       <c r="L32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -2418,31 +2674,40 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.7</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>84</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>22</v>
       </c>
       <c r="K33">
         <v>0.82599999999999996</v>
       </c>
       <c r="L33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -2456,40 +2721,43 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.86</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>28</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>350</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>20.6</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
       </c>
       <c r="K34">
         <v>0.73</v>
       </c>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="N34" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="O34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2503,37 +2771,43 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.87</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>28</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>148</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>26.9</v>
-      </c>
-      <c r="J35">
-        <v>7</v>
       </c>
       <c r="K35">
         <v>0.57999999999999996</v>
       </c>
       <c r="L35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N35" t="s">
+        <v>207</v>
       </c>
       <c r="O35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -2547,37 +2821,43 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.37840000000000001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>60</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>432</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>33.299999999999997</v>
-      </c>
-      <c r="J36">
-        <v>11.3</v>
       </c>
       <c r="K36">
         <v>0.625</v>
       </c>
       <c r="L36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N36" t="s">
+        <v>209</v>
       </c>
       <c r="O36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2591,37 +2871,43 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.7</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>30</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>50</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>45.96</v>
-      </c>
-      <c r="J37">
-        <v>8.69</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
       </c>
       <c r="O37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -2635,34 +2921,40 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.63</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>14</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>85</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>66.2</v>
       </c>
-      <c r="J38">
-        <v>5.2</v>
-      </c>
       <c r="L38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N38" t="s">
+        <v>207</v>
       </c>
       <c r="O38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -2676,31 +2968,40 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.81499999999999995</v>
       </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
       <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
         <v>34</v>
       </c>
       <c r="K39">
         <v>0.94599999999999995</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N39" t="s">
+        <v>207</v>
       </c>
       <c r="O39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -2714,37 +3015,43 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.91</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>14</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>54</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>20.9</v>
-      </c>
-      <c r="J40">
-        <v>1.06</v>
       </c>
       <c r="K40">
         <v>0.83</v>
       </c>
       <c r="L40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M40" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="N40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="O40" t="s">
+        <v>223</v>
+      </c>
+      <c r="P40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2758,34 +3065,40 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.68</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>360</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>211</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>61.8</v>
-      </c>
-      <c r="J41">
-        <v>5.3</v>
       </c>
       <c r="K41">
         <v>0.37</v>
       </c>
       <c r="M41" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N41" t="s">
+        <v>210</v>
       </c>
       <c r="O41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -2799,37 +3112,43 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.44</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>28</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>113</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>10.1</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
       </c>
       <c r="K42">
         <v>0.33</v>
       </c>
       <c r="L42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M42" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N42" t="s">
+        <v>215</v>
       </c>
       <c r="O42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="P42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2843,28 +3162,37 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.13</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>365</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>505</v>
       </c>
       <c r="L43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M43" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N43" t="s">
+        <v>209</v>
       </c>
       <c r="O43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -2878,28 +3206,37 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.97</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>7</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>75</v>
       </c>
       <c r="L44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N44" t="s">
+        <v>208</v>
       </c>
       <c r="O44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2913,34 +3250,43 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.47</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>90</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>437</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>41.2</v>
-      </c>
-      <c r="J45">
-        <v>15.5</v>
       </c>
       <c r="K45">
         <v>0.52</v>
       </c>
       <c r="L45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="N45" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" t="s">
+        <v>223</v>
+      </c>
+      <c r="P45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2954,34 +3300,40 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.83</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>21</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>883</v>
       </c>
-      <c r="I46">
-        <v>10</v>
-      </c>
       <c r="J46">
-        <v>1.1000000000000001</v>
+        <v>10</v>
       </c>
       <c r="L46" t="s">
         <v>178</v>
       </c>
       <c r="M46" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N46" t="s">
+        <v>207</v>
       </c>
       <c r="O46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -2995,34 +3347,46 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.51</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>18</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>175</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>22</v>
       </c>
       <c r="K47">
         <v>0.49</v>
       </c>
       <c r="L47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M47" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N47" t="s">
+        <v>213</v>
       </c>
       <c r="O47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -3036,31 +3400,40 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.22</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>14</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>54</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M48" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N48" t="s">
+        <v>208</v>
       </c>
       <c r="O48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -3074,25 +3447,34 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.91</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N49" t="s">
+        <v>208</v>
       </c>
       <c r="O49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -3106,37 +3488,43 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.49</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>730</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>534</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>57</v>
-      </c>
-      <c r="J50">
-        <v>15</v>
       </c>
       <c r="K50">
         <v>0.42</v>
       </c>
       <c r="L50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M50" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N50" t="s">
+        <v>208</v>
       </c>
       <c r="O50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -3150,37 +3538,43 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>-0.19</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>14</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>28</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>26</v>
-      </c>
-      <c r="J51">
-        <v>6.2</v>
       </c>
       <c r="K51">
         <v>0.64</v>
       </c>
       <c r="L51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M51" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N51" t="s">
+        <v>215</v>
       </c>
       <c r="O51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -3194,37 +3588,43 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.71</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>365</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2813</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>58</v>
-      </c>
-      <c r="J52">
-        <v>16</v>
       </c>
       <c r="K52">
         <v>0.54</v>
       </c>
       <c r="L52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M52" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N52" t="s">
+        <v>211</v>
       </c>
       <c r="O52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3238,37 +3638,43 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" t="s">
         <v>162</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.9</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>28</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>63</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>37.14</v>
-      </c>
-      <c r="J53">
-        <v>12.13</v>
       </c>
       <c r="K53">
         <v>0.43</v>
       </c>
       <c r="L53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M53" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N53" t="s">
+        <v>206</v>
       </c>
       <c r="O53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -3282,37 +3688,43 @@
         <v>19</v>
       </c>
       <c r="E54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" t="s">
         <v>162</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>21</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>52</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>40</v>
-      </c>
-      <c r="J54">
-        <v>24</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M54" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N54" t="s">
+        <v>208</v>
       </c>
       <c r="O54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -3326,15 +3738,18 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" t="s">
         <v>162</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.88</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>690</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>253</v>
       </c>
       <c r="K55">
@@ -3344,10 +3759,19 @@
         <v>178</v>
       </c>
       <c r="M55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="N55" t="s">
+        <v>179</v>
+      </c>
+      <c r="O55" t="s">
+        <v>223</v>
+      </c>
+      <c r="P55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3361,31 +3785,40 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" t="s">
         <v>162</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.46</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>7</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>304</v>
       </c>
       <c r="K56">
         <v>0.56999999999999995</v>
       </c>
       <c r="L56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M56" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N56" t="s">
+        <v>209</v>
       </c>
       <c r="O56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3399,37 +3832,43 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" t="s">
         <v>162</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>365</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>189</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>13.06</v>
-      </c>
-      <c r="J57">
-        <v>0.9</v>
       </c>
       <c r="K57">
         <v>0.45</v>
       </c>
       <c r="L57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M57" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N57" t="s">
+        <v>210</v>
       </c>
       <c r="O57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -3443,18 +3882,21 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" t="s">
         <v>162</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.224</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>90</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>290</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>38.9</v>
       </c>
       <c r="K58">
@@ -3464,13 +3906,19 @@
         <v>178</v>
       </c>
       <c r="M58" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N58" t="s">
+        <v>209</v>
       </c>
       <c r="O58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3484,34 +3932,40 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" t="s">
         <v>162</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.31</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>30</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>1266</v>
       </c>
       <c r="K59">
         <v>0.5</v>
       </c>
       <c r="L59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M59" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="N59" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3525,37 +3979,43 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" t="s">
         <v>162</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.43</v>
       </c>
-      <c r="G60">
-        <v>180</v>
-      </c>
       <c r="H60">
+        <v>180</v>
+      </c>
+      <c r="I60">
         <v>1018</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>13.6</v>
-      </c>
-      <c r="J60">
-        <v>1.01</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M60" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N60" t="s">
+        <v>208</v>
       </c>
       <c r="O60" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -3569,37 +4029,43 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" t="s">
         <v>162</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0.66</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>120</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>422</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>41.99</v>
-      </c>
-      <c r="J61">
-        <v>15.08</v>
       </c>
       <c r="K61">
         <v>0.49</v>
       </c>
       <c r="L61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M61" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N61" t="s">
+        <v>209</v>
       </c>
       <c r="O61" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3613,37 +4079,43 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" t="s">
         <v>162</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.72</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>66.5</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>1207</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>27.07</v>
-      </c>
-      <c r="J62">
-        <v>4.93</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M62" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N62" t="s">
+        <v>214</v>
       </c>
       <c r="O62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -3657,37 +4129,43 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" t="s">
         <v>162</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>0.34</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>240</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>474</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>20.420000000000002</v>
-      </c>
-      <c r="J63">
-        <v>1.39</v>
       </c>
       <c r="K63">
         <v>0.7</v>
       </c>
       <c r="L63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M63" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N63" t="s">
+        <v>209</v>
       </c>
       <c r="O63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -3701,37 +4179,43 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" t="s">
         <v>162</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.95</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>42</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>115</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>71.599999999999994</v>
-      </c>
-      <c r="J64">
-        <v>10.9</v>
       </c>
       <c r="K64">
         <v>0.73</v>
       </c>
       <c r="L64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M64" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N64" t="s">
+        <v>208</v>
       </c>
       <c r="O64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -3745,31 +4229,40 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" t="s">
         <v>162</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.74</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>84</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>22</v>
       </c>
       <c r="K65">
         <v>0.82599999999999996</v>
       </c>
       <c r="L65" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M65" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N65" t="s">
+        <v>207</v>
       </c>
       <c r="O65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -3783,37 +4276,43 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" t="s">
         <v>162</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>0.63</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>28</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>113</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>10.1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
       </c>
       <c r="K66">
         <v>0.33</v>
       </c>
       <c r="L66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M66" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N66" t="s">
+        <v>215</v>
       </c>
       <c r="O66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="P66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -3827,28 +4326,37 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" t="s">
         <v>162</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.96</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>365</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>505</v>
       </c>
       <c r="L67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M67" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N67" t="s">
+        <v>209</v>
       </c>
       <c r="O67" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3862,34 +4370,43 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" t="s">
         <v>162</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0.54</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>90</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>437</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>41.2</v>
-      </c>
-      <c r="J68">
-        <v>15.5</v>
       </c>
       <c r="K68">
         <v>0.52</v>
       </c>
       <c r="L68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="N68" t="s">
+        <v>202</v>
+      </c>
+      <c r="O68" t="s">
+        <v>223</v>
+      </c>
+      <c r="P68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3903,34 +4420,46 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" t="s">
         <v>162</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>18</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>175</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>22</v>
       </c>
       <c r="K69">
         <v>0.49</v>
       </c>
       <c r="L69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M69" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N69" t="s">
+        <v>213</v>
       </c>
       <c r="O69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P69" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3944,31 +4473,40 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" t="s">
         <v>162</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>0.6</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>14</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>54</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M70" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N70" t="s">
+        <v>208</v>
       </c>
       <c r="O70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3982,37 +4520,43 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" t="s">
         <v>162</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>0.59</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>730</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>534</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>57</v>
-      </c>
-      <c r="J71">
-        <v>15</v>
       </c>
       <c r="K71">
         <v>0.42</v>
       </c>
       <c r="L71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M71" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
       </c>
       <c r="O71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -4026,31 +4570,40 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" t="s">
         <v>163</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>7</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>304</v>
       </c>
       <c r="K72">
         <v>0.56999999999999995</v>
       </c>
       <c r="L72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M72" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N72" t="s">
+        <v>209</v>
       </c>
       <c r="O72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4064,37 +4617,43 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" t="s">
         <v>163</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>0.45</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>365</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>157</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>13.06</v>
-      </c>
-      <c r="J73">
-        <v>0.9</v>
       </c>
       <c r="K73">
         <v>0.45</v>
       </c>
       <c r="L73" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M73" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N73" t="s">
+        <v>210</v>
       </c>
       <c r="O73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -4108,37 +4667,43 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" t="s">
         <v>163</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0.5</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>233</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>474</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>20.420000000000002</v>
-      </c>
-      <c r="J74">
-        <v>1.39</v>
       </c>
       <c r="K74">
         <v>0.7</v>
       </c>
       <c r="L74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M74" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N74" t="s">
+        <v>209</v>
       </c>
       <c r="O74" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -4152,37 +4717,43 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
+        <v>217</v>
+      </c>
+      <c r="F75" t="s">
         <v>163</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.87</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>14</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>183</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>21.3</v>
-      </c>
-      <c r="J75">
-        <v>3.2</v>
       </c>
       <c r="K75">
         <v>0.69</v>
       </c>
       <c r="L75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M75" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N75" t="s">
+        <v>208</v>
       </c>
       <c r="O75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -4196,34 +4767,43 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" t="s">
         <v>163</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.52</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>90</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>437</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>41.2</v>
-      </c>
-      <c r="J76">
-        <v>15.5</v>
       </c>
       <c r="K76">
         <v>0.52</v>
       </c>
       <c r="L76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="N76" t="s">
+        <v>202</v>
+      </c>
+      <c r="O76" t="s">
+        <v>223</v>
+      </c>
+      <c r="P76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>210</v>
       </c>
@@ -4237,37 +4817,43 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" t="s">
         <v>164</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.26</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>330</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>474</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>20.420000000000002</v>
-      </c>
-      <c r="J77">
-        <v>1.39</v>
       </c>
       <c r="K77">
         <v>0.7</v>
       </c>
       <c r="L77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M77" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N77" t="s">
+        <v>209</v>
       </c>
       <c r="O77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4281,37 +4867,43 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" t="s">
         <v>164</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0.42</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>730</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>189</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>13.06</v>
-      </c>
-      <c r="J78">
-        <v>0.9</v>
       </c>
       <c r="K78">
         <v>0.45</v>
       </c>
       <c r="L78" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M78" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N78" t="s">
+        <v>210</v>
       </c>
       <c r="O78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -4325,34 +4917,43 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" t="s">
         <v>164</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>0.38</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>90</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>437</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>41.2</v>
-      </c>
-      <c r="J79">
-        <v>15.5</v>
       </c>
       <c r="K79">
         <v>0.52</v>
       </c>
       <c r="L79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="N79" t="s">
+        <v>202</v>
+      </c>
+      <c r="O79" t="s">
+        <v>223</v>
+      </c>
+      <c r="P79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>210</v>
       </c>
@@ -4366,37 +4967,43 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" t="s">
         <v>165</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.4</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>323</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>474</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>20.420000000000002</v>
-      </c>
-      <c r="J80">
-        <v>1.39</v>
       </c>
       <c r="K80">
         <v>0.7</v>
       </c>
       <c r="L80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M80" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N80" t="s">
+        <v>209</v>
       </c>
       <c r="O80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -4410,37 +5017,43 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
+        <v>219</v>
+      </c>
+      <c r="F81" t="s">
         <v>165</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0.43</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1095</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>157</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>13.06</v>
-      </c>
-      <c r="J81">
-        <v>0.9</v>
       </c>
       <c r="K81">
         <v>0.45</v>
       </c>
       <c r="L81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M81" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N81" t="s">
+        <v>210</v>
       </c>
       <c r="O81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>210</v>
       </c>
@@ -4454,37 +5067,43 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
+        <v>219</v>
+      </c>
+      <c r="F82" t="s">
         <v>166</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.6</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>90</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>474</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>20.420000000000002</v>
-      </c>
-      <c r="J82">
-        <v>1.39</v>
       </c>
       <c r="K82">
         <v>0.7</v>
       </c>
       <c r="L82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M82" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N82" t="s">
+        <v>209</v>
       </c>
       <c r="O82" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -4498,37 +5117,43 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
+        <v>219</v>
+      </c>
+      <c r="F83" t="s">
         <v>166</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.38</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1460</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>135</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>13.06</v>
-      </c>
-      <c r="J83">
-        <v>0.9</v>
       </c>
       <c r="K83">
         <v>0.45</v>
       </c>
       <c r="L83" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M83" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N83" t="s">
+        <v>210</v>
       </c>
       <c r="O83" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -4542,37 +5167,43 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
+        <v>219</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.42</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>730</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>157</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>13.06</v>
-      </c>
-      <c r="J84">
-        <v>0.9</v>
       </c>
       <c r="K84">
         <v>0.45</v>
       </c>
       <c r="L84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M84" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N84" t="s">
+        <v>210</v>
       </c>
       <c r="O84" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -4586,37 +5217,43 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
+        <v>219</v>
+      </c>
+      <c r="F85" t="s">
         <v>168</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.42</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1095</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>135</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>13.06</v>
-      </c>
-      <c r="J85">
-        <v>0.9</v>
       </c>
       <c r="K85">
         <v>0.45</v>
       </c>
       <c r="L85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N85" t="s">
+        <v>210</v>
       </c>
       <c r="O85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -4630,37 +5267,43 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
+        <v>219</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>0.54</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>730</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>135</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>13.06</v>
-      </c>
-      <c r="J86">
-        <v>0.9</v>
       </c>
       <c r="K86">
         <v>0.45</v>
       </c>
       <c r="L86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M86" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N86" t="s">
+        <v>210</v>
       </c>
       <c r="O86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -4674,37 +5317,43 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" t="s">
         <v>170</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.78</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>56</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>63</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>37.380000000000003</v>
-      </c>
-      <c r="J87">
-        <v>9.3699999999999992</v>
       </c>
       <c r="K87">
         <v>0.45</v>
       </c>
       <c r="L87" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N87" t="s">
+        <v>206</v>
       </c>
       <c r="O87" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4712,24 +5361,27 @@
         <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
       </c>
       <c r="E88" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" t="s">
         <v>170</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>0.224</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>90</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>290</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>38.9</v>
       </c>
       <c r="K88">
@@ -4739,13 +5391,19 @@
         <v>178</v>
       </c>
       <c r="M88" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N88" t="s">
+        <v>209</v>
       </c>
       <c r="O88" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -4759,37 +5417,43 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" t="s">
         <v>170</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>1825</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>909</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>55.9</v>
-      </c>
-      <c r="J89">
-        <v>6.9</v>
       </c>
       <c r="K89">
         <v>0.57699999999999996</v>
       </c>
       <c r="L89" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M89" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N89" t="s">
+        <v>212</v>
       </c>
       <c r="O89" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="P89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -4803,37 +5467,43 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" t="s">
         <v>170</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0.73</v>
       </c>
-      <c r="G90">
-        <v>180</v>
-      </c>
       <c r="H90">
+        <v>180</v>
+      </c>
+      <c r="I90">
         <v>49</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>36.799999999999997</v>
-      </c>
-      <c r="J90">
-        <v>7.3</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M90" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N90" t="s">
+        <v>213</v>
       </c>
       <c r="O90" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -4847,37 +5517,43 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91" t="s">
         <v>170</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.69</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>717</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>129</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>39</v>
-      </c>
-      <c r="J91">
-        <v>15.6</v>
       </c>
       <c r="K91">
         <v>0.79</v>
       </c>
       <c r="L91" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M91" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N91" t="s">
+        <v>206</v>
       </c>
       <c r="O91" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -4891,37 +5567,43 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
+        <v>219</v>
+      </c>
+      <c r="F92" t="s">
         <v>170</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0.81</v>
       </c>
-      <c r="G92">
-        <v>180</v>
-      </c>
       <c r="H92">
+        <v>180</v>
+      </c>
+      <c r="I92">
         <v>428</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>50.79</v>
-      </c>
-      <c r="J92">
-        <v>14.47</v>
       </c>
       <c r="K92">
         <v>0.54</v>
       </c>
       <c r="L92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M92" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N92" t="s">
+        <v>210</v>
       </c>
       <c r="O92" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="P92" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4935,31 +5617,43 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" t="s">
         <v>170</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>0.6</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>365</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>1720</v>
       </c>
       <c r="K93">
         <v>0.53</v>
       </c>
       <c r="L93" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M93" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N93" t="s">
+        <v>208</v>
       </c>
       <c r="O93" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="P93" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4973,37 +5667,46 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" t="s">
         <v>170</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.66</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>90</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>422</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>41.99</v>
-      </c>
-      <c r="J94">
-        <v>15.08</v>
       </c>
       <c r="K94">
         <v>0.49</v>
       </c>
       <c r="L94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N94" t="s">
+        <v>209</v>
       </c>
       <c r="O94" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P94" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5017,37 +5720,43 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" t="s">
         <v>170</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>-0.2666</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>60</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>432</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>33.299999999999997</v>
-      </c>
-      <c r="J95">
-        <v>11.3</v>
       </c>
       <c r="K95">
         <v>0.625</v>
       </c>
       <c r="L95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M95" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N95" t="s">
+        <v>209</v>
       </c>
       <c r="O95" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -5061,37 +5770,43 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
+        <v>217</v>
+      </c>
+      <c r="F96" t="s">
         <v>170</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0.87</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>30</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>50</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>45.96</v>
-      </c>
-      <c r="J96">
-        <v>8.69</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M96" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N96" t="s">
+        <v>213</v>
       </c>
       <c r="O96" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5105,34 +5820,40 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
+        <v>217</v>
+      </c>
+      <c r="F97" t="s">
         <v>170</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0.5</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>360</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>211</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>61.8</v>
-      </c>
-      <c r="J97">
-        <v>5.3</v>
       </c>
       <c r="K97">
         <v>0.37</v>
       </c>
       <c r="M97" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N97" t="s">
+        <v>210</v>
       </c>
       <c r="O97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -5146,37 +5867,43 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" t="s">
         <v>171</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>0.79</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>90</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>49</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>36.799999999999997</v>
-      </c>
-      <c r="J98">
-        <v>7.3</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M98" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N98" t="s">
+        <v>213</v>
       </c>
       <c r="O98" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5190,37 +5917,43 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
+        <v>219</v>
+      </c>
+      <c r="F99" t="s">
         <v>171</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>-0.61880000000000002</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>60</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>432</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>33.299999999999997</v>
-      </c>
-      <c r="J99">
-        <v>11.3</v>
       </c>
       <c r="K99">
         <v>0.625</v>
       </c>
       <c r="L99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M99" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N99" t="s">
+        <v>209</v>
       </c>
       <c r="O99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -5234,34 +5967,40 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
+        <v>219</v>
+      </c>
+      <c r="F100" t="s">
         <v>171</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>0.49</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>360</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>199</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>60.3</v>
-      </c>
-      <c r="J100">
-        <v>4.5</v>
       </c>
       <c r="K100">
         <v>0.51</v>
       </c>
       <c r="M100" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N100" t="s">
+        <v>210</v>
       </c>
       <c r="O100" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P100" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -5275,34 +6014,40 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" t="s">
         <v>172</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>360</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>199</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>60.3</v>
-      </c>
-      <c r="J101">
-        <v>4.5</v>
       </c>
       <c r="K101">
         <v>0.51</v>
       </c>
       <c r="M101" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N101" t="s">
+        <v>210</v>
       </c>
       <c r="O101" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P101" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -5316,31 +6061,37 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" t="s">
         <v>173</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>0.3</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>360</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>199</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>60.3</v>
-      </c>
-      <c r="J102">
-        <v>4.5</v>
       </c>
       <c r="K102">
         <v>0.51</v>
       </c>
       <c r="M102" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="N102" t="s">
+        <v>210</v>
       </c>
       <c r="O102" t="s">
-        <v>214</v>
+        <v>223</v>
+      </c>
+      <c r="P102" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/cor_final.xlsx
+++ b/data/cor_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059CBEC8-E1D8-CE46-8068-DF92AB88975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10604459-619F-4F4B-A190-668653A10579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31040" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22680" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="209">
   <si>
     <t>x1</t>
   </si>
@@ -562,90 +562,27 @@
     <t>female</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>south korea</t>
-  </si>
-  <si>
     <t>finance</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>switzerland</t>
-  </si>
-  <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>norway</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-  <si>
-    <t>finland</t>
-  </si>
-  <si>
-    <t>hungary</t>
-  </si>
-  <si>
     <t>nature</t>
   </si>
   <si>
-    <t>south africa</t>
-  </si>
-  <si>
-    <t>netherlands</t>
-  </si>
-  <si>
-    <t>denmark</t>
-  </si>
-  <si>
-    <t>israel</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
     <t>crime</t>
   </si>
   <si>
-    <t>australia</t>
-  </si>
-  <si>
     <t>Examining "untact" tourism behaviour in South Korea during the COVID-19 pandemic: a two-wave longitudinal study (March and September 2020)</t>
   </si>
   <si>
-    <t>belgium</t>
-  </si>
-  <si>
     <t>political</t>
   </si>
   <si>
-    <t>sri lanka</t>
-  </si>
-  <si>
-    <t>ireland</t>
-  </si>
-  <si>
     <t>health_subdomain</t>
   </si>
   <si>
@@ -719,9 +656,6 @@
   </si>
   <si>
     <t>exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but check </t>
   </si>
 </sst>
 </file>
@@ -1055,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1071,14 +1005,13 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1113,22 +1046,19 @@
         <v>176</v>
       </c>
       <c r="L1" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M1" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
         <v>205</v>
       </c>
-      <c r="O1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1163,22 +1093,19 @@
         <v>0.43</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" t="s">
         <v>206</v>
       </c>
-      <c r="O2" t="s">
-        <v>223</v>
-      </c>
-      <c r="P2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1213,22 +1140,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O3" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1166,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1262,20 +1186,20 @@
       <c r="K4">
         <v>0.53</v>
       </c>
+      <c r="L4" t="s">
+        <v>179</v>
+      </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O4" t="s">
-        <v>223</v>
-      </c>
-      <c r="P4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1310,22 +1234,19 @@
         <v>0.05</v>
       </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
-      </c>
-      <c r="P5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1360,22 +1281,19 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1407,22 +1325,19 @@
         <v>0.37</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="O7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1454,22 +1369,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1483,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1504,22 +1416,19 @@
         <v>0.08</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1554,22 +1463,19 @@
         <v>0.15</v>
       </c>
       <c r="L10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" t="s">
         <v>208</v>
       </c>
-      <c r="O10" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1604,22 +1510,19 @@
         <v>0.45</v>
       </c>
       <c r="L11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O11" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1633,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1654,22 +1557,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L12" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O12" t="s">
-        <v>223</v>
-      </c>
-      <c r="P12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1683,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1704,22 +1604,19 @@
         <v>0.47</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O13" t="s">
-        <v>223</v>
-      </c>
-      <c r="P13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1733,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1757,19 +1654,16 @@
         <v>178</v>
       </c>
       <c r="M14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N14" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O14" t="s">
-        <v>223</v>
-      </c>
-      <c r="P14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1804,22 +1698,19 @@
         <v>0.65</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O15" t="s">
-        <v>223</v>
-      </c>
-      <c r="P15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1833,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1854,22 +1745,19 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="L16" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="O16" t="s">
-        <v>222</v>
-      </c>
-      <c r="P16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1904,22 +1792,19 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>223</v>
-      </c>
-      <c r="P17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1933,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1954,22 +1839,19 @@
         <v>0.64</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1983,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -2001,22 +1883,19 @@
         <v>0.5</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -2030,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2051,22 +1930,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2080,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2101,22 +1977,19 @@
         <v>0.79</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
         <v>206</v>
       </c>
-      <c r="O21" t="s">
-        <v>222</v>
-      </c>
-      <c r="P21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2130,7 +2003,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2151,22 +2024,19 @@
         <v>0.49</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M22" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2180,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2201,22 +2071,19 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M23" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>222</v>
-      </c>
-      <c r="P23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2230,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2251,22 +2118,19 @@
         <v>0.49</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>223</v>
-      </c>
-      <c r="P24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2280,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2301,22 +2165,19 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M25" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -2330,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2348,22 +2209,19 @@
         <v>0.53</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
         <v>208</v>
       </c>
-      <c r="O26" t="s">
-        <v>223</v>
-      </c>
-      <c r="P26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -2377,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2398,22 +2256,19 @@
         <v>0.49</v>
       </c>
       <c r="L27" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2427,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2448,22 +2303,19 @@
         <v>0.76</v>
       </c>
       <c r="L28" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>223</v>
-      </c>
-      <c r="P28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -2477,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -2498,22 +2350,19 @@
         <v>0.7</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s">
-        <v>223</v>
-      </c>
-      <c r="P29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2527,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -2548,22 +2397,19 @@
         <v>0.73</v>
       </c>
       <c r="L30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O30" t="s">
-        <v>223</v>
-      </c>
-      <c r="P30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -2577,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2595,22 +2441,19 @@
         <v>0.52</v>
       </c>
       <c r="L31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="N31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -2624,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -2645,22 +2488,19 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N32" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O32" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -2674,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2692,22 +2532,19 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="L33" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
-        <v>223</v>
-      </c>
-      <c r="P33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -2721,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -2742,22 +2579,19 @@
         <v>0.73</v>
       </c>
       <c r="L34" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M34" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="N34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O34" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2771,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -2792,22 +2626,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M35" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s">
-        <v>223</v>
-      </c>
-      <c r="P35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -2821,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2842,22 +2673,19 @@
         <v>0.625</v>
       </c>
       <c r="L36" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M36" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N36" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O36" t="s">
-        <v>223</v>
-      </c>
-      <c r="P36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2871,7 +2699,7 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -2892,22 +2720,19 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M37" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N37" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O37" t="s">
-        <v>223</v>
-      </c>
-      <c r="P37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -2921,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -2939,22 +2764,19 @@
         <v>66.2</v>
       </c>
       <c r="L38" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M38" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N38" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" t="s">
         <v>207</v>
       </c>
-      <c r="O38" t="s">
-        <v>223</v>
-      </c>
-      <c r="P38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -2968,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2986,22 +2808,19 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="L39" t="s">
+        <v>178</v>
+      </c>
+      <c r="M39" t="s">
         <v>186</v>
       </c>
-      <c r="M39" t="s">
-        <v>180</v>
-      </c>
       <c r="N39" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O39" t="s">
-        <v>223</v>
-      </c>
-      <c r="P39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -3015,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -3036,22 +2855,19 @@
         <v>0.83</v>
       </c>
       <c r="L40" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="N40" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s">
-        <v>223</v>
-      </c>
-      <c r="P40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -3085,20 +2901,20 @@
       <c r="K41">
         <v>0.37</v>
       </c>
+      <c r="L41" t="s">
+        <v>178</v>
+      </c>
       <c r="M41" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N41" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
-      </c>
-      <c r="P41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -3112,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -3133,22 +2949,19 @@
         <v>0.33</v>
       </c>
       <c r="L42" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="N42" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="O42" t="s">
-        <v>208</v>
-      </c>
-      <c r="P42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3162,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -3177,22 +2990,19 @@
         <v>505</v>
       </c>
       <c r="L43" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M43" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O43" t="s">
-        <v>223</v>
-      </c>
-      <c r="P43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -3206,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -3221,22 +3031,19 @@
         <v>75</v>
       </c>
       <c r="L44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N44" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O44" t="s">
-        <v>223</v>
-      </c>
-      <c r="P44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -3250,7 +3057,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -3271,22 +3078,19 @@
         <v>0.52</v>
       </c>
       <c r="L45" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M45" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="N45" t="s">
         <v>202</v>
       </c>
       <c r="O45" t="s">
-        <v>223</v>
-      </c>
-      <c r="P45" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -3300,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -3321,19 +3125,16 @@
         <v>178</v>
       </c>
       <c r="M46" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O46" t="s">
-        <v>223</v>
-      </c>
-      <c r="P46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -3347,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -3368,25 +3169,19 @@
         <v>0.49</v>
       </c>
       <c r="L47" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M47" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N47" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P47" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -3400,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -3418,22 +3213,19 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N48" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s">
-        <v>223</v>
-      </c>
-      <c r="P48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -3447,7 +3239,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -3458,23 +3250,23 @@
       <c r="H49">
         <v>28</v>
       </c>
+      <c r="I49">
+        <v>686</v>
+      </c>
       <c r="L49" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M49" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O49" t="s">
-        <v>223</v>
-      </c>
-      <c r="P49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -3488,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -3509,22 +3301,19 @@
         <v>0.42</v>
       </c>
       <c r="L50" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M50" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O50" t="s">
-        <v>223</v>
-      </c>
-      <c r="P50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -3538,7 +3327,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -3559,22 +3348,19 @@
         <v>0.64</v>
       </c>
       <c r="L51" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="M51" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="N51" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O51" t="s">
-        <v>223</v>
-      </c>
-      <c r="P51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -3588,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -3609,22 +3395,19 @@
         <v>0.54</v>
       </c>
       <c r="L52" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M52" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N52" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O52" t="s">
-        <v>223</v>
-      </c>
-      <c r="P52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3638,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
         <v>162</v>
@@ -3659,22 +3442,19 @@
         <v>0.43</v>
       </c>
       <c r="L53" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M53" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N53" t="s">
+        <v>202</v>
+      </c>
+      <c r="O53" t="s">
         <v>206</v>
       </c>
-      <c r="O53" t="s">
-        <v>223</v>
-      </c>
-      <c r="P53" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -3688,7 +3468,7 @@
         <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
         <v>162</v>
@@ -3709,22 +3489,19 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M54" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N54" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O54" t="s">
-        <v>223</v>
-      </c>
-      <c r="P54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -3738,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
         <v>162</v>
@@ -3756,22 +3533,19 @@
         <v>0.37</v>
       </c>
       <c r="L55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N55" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="O55" t="s">
-        <v>223</v>
-      </c>
-      <c r="P55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3785,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F56" t="s">
         <v>162</v>
@@ -3803,22 +3577,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L56" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M56" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N56" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O56" t="s">
-        <v>223</v>
-      </c>
-      <c r="P56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3832,7 +3603,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F57" t="s">
         <v>162</v>
@@ -3853,22 +3624,19 @@
         <v>0.45</v>
       </c>
       <c r="L57" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M57" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N57" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O57" t="s">
-        <v>223</v>
-      </c>
-      <c r="P57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -3882,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F58" t="s">
         <v>162</v>
@@ -3906,19 +3674,16 @@
         <v>178</v>
       </c>
       <c r="M58" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N58" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O58" t="s">
-        <v>223</v>
-      </c>
-      <c r="P58" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3932,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F59" t="s">
         <v>162</v>
@@ -3950,22 +3715,19 @@
         <v>0.5</v>
       </c>
       <c r="L59" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M59" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="N59" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O59" t="s">
-        <v>223</v>
-      </c>
-      <c r="P59" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3979,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
         <v>162</v>
@@ -4000,22 +3762,19 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M60" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N60" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O60" t="s">
-        <v>223</v>
-      </c>
-      <c r="P60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -4029,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
         <v>162</v>
@@ -4050,22 +3809,19 @@
         <v>0.49</v>
       </c>
       <c r="L61" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M61" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N61" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O61" t="s">
-        <v>223</v>
-      </c>
-      <c r="P61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -4079,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
         <v>162</v>
@@ -4100,22 +3856,19 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M62" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="N62" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O62" t="s">
-        <v>223</v>
-      </c>
-      <c r="P62" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -4129,7 +3882,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F63" t="s">
         <v>162</v>
@@ -4150,22 +3903,19 @@
         <v>0.7</v>
       </c>
       <c r="L63" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M63" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N63" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O63" t="s">
-        <v>223</v>
-      </c>
-      <c r="P63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -4179,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
         <v>162</v>
@@ -4200,22 +3950,19 @@
         <v>0.73</v>
       </c>
       <c r="L64" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N64" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O64" t="s">
-        <v>223</v>
-      </c>
-      <c r="P64" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -4229,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
         <v>162</v>
@@ -4247,22 +3994,19 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="L65" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N65" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O65" t="s">
-        <v>223</v>
-      </c>
-      <c r="P65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -4276,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F66" t="s">
         <v>162</v>
@@ -4297,22 +4041,19 @@
         <v>0.33</v>
       </c>
       <c r="L66" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="N66" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="O66" t="s">
-        <v>208</v>
-      </c>
-      <c r="P66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -4326,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F67" t="s">
         <v>162</v>
@@ -4341,22 +4082,19 @@
         <v>505</v>
       </c>
       <c r="L67" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M67" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N67" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O67" t="s">
-        <v>223</v>
-      </c>
-      <c r="P67" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -4370,7 +4108,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F68" t="s">
         <v>162</v>
@@ -4391,22 +4129,19 @@
         <v>0.52</v>
       </c>
       <c r="L68" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M68" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="N68" t="s">
         <v>202</v>
       </c>
       <c r="O68" t="s">
-        <v>223</v>
-      </c>
-      <c r="P68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -4420,7 +4155,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F69" t="s">
         <v>162</v>
@@ -4441,25 +4176,19 @@
         <v>0.49</v>
       </c>
       <c r="L69" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M69" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N69" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O69" t="s">
-        <v>223</v>
-      </c>
-      <c r="P69" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -4473,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F70" t="s">
         <v>162</v>
@@ -4491,22 +4220,19 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="M70" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N70" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O70" t="s">
-        <v>223</v>
-      </c>
-      <c r="P70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -4520,7 +4246,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F71" t="s">
         <v>162</v>
@@ -4541,22 +4267,19 @@
         <v>0.42</v>
       </c>
       <c r="L71" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M71" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N71" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O71" t="s">
-        <v>223</v>
-      </c>
-      <c r="P71" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -4570,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F72" t="s">
         <v>163</v>
@@ -4588,22 +4311,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L72" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N72" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O72" t="s">
-        <v>223</v>
-      </c>
-      <c r="P72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4617,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F73" t="s">
         <v>163</v>
@@ -4638,22 +4358,19 @@
         <v>0.45</v>
       </c>
       <c r="L73" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M73" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N73" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O73" t="s">
-        <v>223</v>
-      </c>
-      <c r="P73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -4667,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F74" t="s">
         <v>163</v>
@@ -4688,22 +4405,19 @@
         <v>0.7</v>
       </c>
       <c r="L74" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M74" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N74" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O74" t="s">
-        <v>223</v>
-      </c>
-      <c r="P74" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -4717,7 +4431,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F75" t="s">
         <v>163</v>
@@ -4738,22 +4452,19 @@
         <v>0.69</v>
       </c>
       <c r="L75" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M75" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N75" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O75" t="s">
-        <v>223</v>
-      </c>
-      <c r="P75" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -4767,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F76" t="s">
         <v>163</v>
@@ -4788,22 +4499,19 @@
         <v>0.52</v>
       </c>
       <c r="L76" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M76" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="N76" t="s">
         <v>202</v>
       </c>
       <c r="O76" t="s">
-        <v>223</v>
-      </c>
-      <c r="P76" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>210</v>
       </c>
@@ -4817,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
         <v>164</v>
@@ -4838,22 +4546,19 @@
         <v>0.7</v>
       </c>
       <c r="L77" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M77" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N77" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O77" t="s">
-        <v>223</v>
-      </c>
-      <c r="P77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4867,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
         <v>164</v>
@@ -4888,22 +4593,19 @@
         <v>0.45</v>
       </c>
       <c r="L78" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M78" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N78" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O78" t="s">
-        <v>223</v>
-      </c>
-      <c r="P78" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -4917,7 +4619,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F79" t="s">
         <v>164</v>
@@ -4938,22 +4640,19 @@
         <v>0.52</v>
       </c>
       <c r="L79" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M79" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="N79" t="s">
         <v>202</v>
       </c>
       <c r="O79" t="s">
-        <v>223</v>
-      </c>
-      <c r="P79" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>210</v>
       </c>
@@ -4967,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F80" t="s">
         <v>165</v>
@@ -4988,22 +4687,19 @@
         <v>0.7</v>
       </c>
       <c r="L80" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M80" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N80" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O80" t="s">
-        <v>223</v>
-      </c>
-      <c r="P80" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -5017,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
         <v>165</v>
@@ -5038,22 +4734,19 @@
         <v>0.45</v>
       </c>
       <c r="L81" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M81" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N81" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O81" t="s">
-        <v>223</v>
-      </c>
-      <c r="P81" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>210</v>
       </c>
@@ -5067,7 +4760,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F82" t="s">
         <v>166</v>
@@ -5088,22 +4781,19 @@
         <v>0.7</v>
       </c>
       <c r="L82" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M82" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N82" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O82" t="s">
-        <v>223</v>
-      </c>
-      <c r="P82" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -5117,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F83" t="s">
         <v>166</v>
@@ -5138,22 +4828,19 @@
         <v>0.45</v>
       </c>
       <c r="L83" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M83" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N83" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O83" t="s">
-        <v>223</v>
-      </c>
-      <c r="P83" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -5167,7 +4854,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F84" t="s">
         <v>167</v>
@@ -5188,22 +4875,19 @@
         <v>0.45</v>
       </c>
       <c r="L84" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M84" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N84" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O84" t="s">
-        <v>223</v>
-      </c>
-      <c r="P84" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -5217,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F85" t="s">
         <v>168</v>
@@ -5238,22 +4922,19 @@
         <v>0.45</v>
       </c>
       <c r="L85" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M85" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N85" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O85" t="s">
-        <v>223</v>
-      </c>
-      <c r="P85" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -5267,7 +4948,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F86" t="s">
         <v>169</v>
@@ -5288,22 +4969,19 @@
         <v>0.45</v>
       </c>
       <c r="L86" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M86" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N86" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O86" t="s">
-        <v>223</v>
-      </c>
-      <c r="P86" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5317,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F87" t="s">
         <v>170</v>
@@ -5338,22 +5016,19 @@
         <v>0.45</v>
       </c>
       <c r="L87" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N87" t="s">
+        <v>202</v>
+      </c>
+      <c r="O87" t="s">
         <v>206</v>
       </c>
-      <c r="O87" t="s">
-        <v>223</v>
-      </c>
-      <c r="P87" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -5361,13 +5036,13 @@
         <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
         <v>170</v>
@@ -5391,19 +5066,16 @@
         <v>178</v>
       </c>
       <c r="M88" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N88" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O88" t="s">
-        <v>223</v>
-      </c>
-      <c r="P88" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -5417,7 +5089,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
         <v>170</v>
@@ -5438,22 +5110,19 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="L89" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M89" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N89" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="O89" t="s">
-        <v>222</v>
-      </c>
-      <c r="P89" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -5467,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F90" t="s">
         <v>170</v>
@@ -5488,22 +5157,19 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M90" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N90" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O90" t="s">
-        <v>223</v>
-      </c>
-      <c r="P90" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -5517,7 +5183,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F91" t="s">
         <v>170</v>
@@ -5538,22 +5204,19 @@
         <v>0.79</v>
       </c>
       <c r="L91" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M91" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N91" t="s">
+        <v>202</v>
+      </c>
+      <c r="O91" t="s">
         <v>206</v>
       </c>
-      <c r="O91" t="s">
-        <v>223</v>
-      </c>
-      <c r="P91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -5567,7 +5230,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F92" t="s">
         <v>170</v>
@@ -5588,22 +5251,19 @@
         <v>0.54</v>
       </c>
       <c r="L92" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M92" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N92" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O92" t="s">
-        <v>222</v>
-      </c>
-      <c r="P92" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -5617,7 +5277,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F93" t="s">
         <v>170</v>
@@ -5635,25 +5295,19 @@
         <v>0.53</v>
       </c>
       <c r="L93" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M93" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N93" t="s">
+        <v>201</v>
+      </c>
+      <c r="O93" t="s">
         <v>208</v>
       </c>
-      <c r="O93" t="s">
-        <v>222</v>
-      </c>
-      <c r="P93" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -5667,7 +5321,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
         <v>170</v>
@@ -5688,25 +5342,19 @@
         <v>0.49</v>
       </c>
       <c r="L94" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M94" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N94" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O94" t="s">
-        <v>223</v>
-      </c>
-      <c r="P94" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5720,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F95" t="s">
         <v>170</v>
@@ -5741,22 +5389,19 @@
         <v>0.625</v>
       </c>
       <c r="L95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M95" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N95" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O95" t="s">
-        <v>223</v>
-      </c>
-      <c r="P95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -5770,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F96" t="s">
         <v>170</v>
@@ -5791,22 +5436,19 @@
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M96" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N96" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O96" t="s">
-        <v>223</v>
-      </c>
-      <c r="P96" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5820,7 +5462,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F97" t="s">
         <v>170</v>
@@ -5840,20 +5482,20 @@
       <c r="K97">
         <v>0.37</v>
       </c>
+      <c r="L97" t="s">
+        <v>178</v>
+      </c>
       <c r="M97" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N97" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O97" t="s">
-        <v>223</v>
-      </c>
-      <c r="P97" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -5867,7 +5509,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F98" t="s">
         <v>171</v>
@@ -5888,22 +5530,19 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M98" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="N98" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O98" t="s">
-        <v>223</v>
-      </c>
-      <c r="P98" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5917,7 +5556,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F99" t="s">
         <v>171</v>
@@ -5938,22 +5577,19 @@
         <v>0.625</v>
       </c>
       <c r="L99" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M99" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N99" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O99" t="s">
-        <v>223</v>
-      </c>
-      <c r="P99" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -5967,7 +5603,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F100" t="s">
         <v>171</v>
@@ -5987,20 +5623,20 @@
       <c r="K100">
         <v>0.51</v>
       </c>
+      <c r="L100" t="s">
+        <v>178</v>
+      </c>
       <c r="M100" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N100" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O100" t="s">
-        <v>223</v>
-      </c>
-      <c r="P100" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -6014,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
         <v>172</v>
@@ -6034,20 +5670,20 @@
       <c r="K101">
         <v>0.51</v>
       </c>
+      <c r="L101" t="s">
+        <v>178</v>
+      </c>
       <c r="M101" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N101" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O101" t="s">
-        <v>223</v>
-      </c>
-      <c r="P101" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -6061,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
         <v>173</v>
@@ -6081,17 +5717,17 @@
       <c r="K102">
         <v>0.51</v>
       </c>
+      <c r="L102" t="s">
+        <v>178</v>
+      </c>
       <c r="M102" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N102" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O102" t="s">
-        <v>223</v>
-      </c>
-      <c r="P102" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/cor_final.xlsx
+++ b/data/cor_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10604459-619F-4F4B-A190-668653A10579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C326023-CF92-DA48-A042-4759868D3A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22680" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2955,7 +2955,7 @@
         <v>194</v>
       </c>
       <c r="N42" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O42" t="s">
         <v>206</v>
@@ -4047,7 +4047,7 @@
         <v>194</v>
       </c>
       <c r="N66" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O66" t="s">
         <v>206</v>
